--- a/BuzzerBeater/src/main/java/資料庫表格/DEMO專用/冬季聯賽.xlsx
+++ b/BuzzerBeater/src/main/java/資料庫表格/DEMO專用/冬季聯賽.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="賽事" sheetId="1" r:id="rId1"/>
-    <sheet name="參照" sheetId="7" r:id="rId2"/>
-    <sheet name="分組" sheetId="2" r:id="rId3"/>
-    <sheet name="分組 (2)" sheetId="13" r:id="rId4"/>
-    <sheet name="分組 (3)" sheetId="14" r:id="rId5"/>
-    <sheet name="分組 (4)" sheetId="15" r:id="rId6"/>
-    <sheet name="分組 (5)" sheetId="16" r:id="rId7"/>
+    <sheet name="分組" sheetId="2" r:id="rId2"/>
+    <sheet name="分組 (2)" sheetId="13" r:id="rId3"/>
+    <sheet name="分組 (3)" sheetId="14" r:id="rId4"/>
+    <sheet name="分組 (4)" sheetId="15" r:id="rId5"/>
+    <sheet name="分組 (5)" sheetId="16" r:id="rId6"/>
+    <sheet name="參照" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -215,18 +215,10 @@
     <t>甲骨文體育館 (101)</t>
   </si>
   <si>
-    <t>2017/11/16 12:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017/11/01 12:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-11-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-02-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +228,14 @@
   </si>
   <si>
     <t>比賽日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/17 12:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-11-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,14 +259,6 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -301,15 +293,21 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -452,32 +450,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -486,40 +538,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,12 +872,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="24.33203125" style="7"/>
+    <col min="1" max="1" width="22.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="24.33203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -830,21 +900,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>51</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -855,116 +925,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="12"/>
-    <col min="3" max="3" width="28.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="26.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="17.77734375" style="7"/>
+    <col min="1" max="1" width="17.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="33.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="17.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -981,619 +960,619 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="15">
         <v>8</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="15">
         <v>4</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="15">
         <v>12</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:6" s="13" customFormat="1" ht="19.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
-        <v>43056.375</v>
-      </c>
-      <c r="B5" s="19">
-        <v>43056.375</v>
-      </c>
-      <c r="C5" s="19">
-        <v>43056.458333333336</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>43059</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
-        <v>43056.375</v>
-      </c>
-      <c r="B6" s="19">
-        <v>43056.375</v>
-      </c>
-      <c r="C6" s="19">
-        <v>43056.458333333336</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>43059</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
-        <v>43056.375</v>
-      </c>
-      <c r="B7" s="19">
-        <v>43056.375</v>
-      </c>
-      <c r="C7" s="19">
-        <v>43056.458333333336</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>43059</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
-        <v>43056.375</v>
-      </c>
-      <c r="B8" s="19">
-        <v>43056.375</v>
-      </c>
-      <c r="C8" s="19">
-        <v>43056.458333333336</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>43059</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
-        <v>43057.375</v>
-      </c>
-      <c r="B9" s="19">
-        <v>43057.375</v>
-      </c>
-      <c r="C9" s="19">
-        <v>43057.458333333336</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>43060</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
-        <v>43057.375</v>
-      </c>
-      <c r="B10" s="19">
-        <v>43057.375</v>
-      </c>
-      <c r="C10" s="19">
-        <v>43057.458333333336</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>43060</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
-        <v>43057.375</v>
-      </c>
-      <c r="B11" s="19">
-        <v>43057.375</v>
-      </c>
-      <c r="C11" s="19">
-        <v>43057.458333333336</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>43060</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
-        <v>43057.375</v>
-      </c>
-      <c r="B12" s="19">
-        <v>43057.375</v>
-      </c>
-      <c r="C12" s="19">
-        <v>43057.458333333336</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>43060</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
-        <v>43058.375</v>
-      </c>
-      <c r="B13" s="19">
-        <v>43058.375</v>
-      </c>
-      <c r="C13" s="19">
-        <v>43058.458333333336</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>43061</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
-        <v>43058.375</v>
-      </c>
-      <c r="B14" s="19">
-        <v>43058.375</v>
-      </c>
-      <c r="C14" s="19">
-        <v>43058.458333333336</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>43061</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
-        <v>43058.375</v>
-      </c>
-      <c r="B15" s="19">
-        <v>43058.375</v>
-      </c>
-      <c r="C15" s="19">
-        <v>43058.458333333336</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>43061</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
-        <v>43058.375</v>
-      </c>
-      <c r="B16" s="19">
-        <v>43058.375</v>
-      </c>
-      <c r="C16" s="19">
-        <v>43058.458333333336</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>43061</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
-        <v>43059.375</v>
-      </c>
-      <c r="B17" s="19">
-        <v>43059.375</v>
-      </c>
-      <c r="C17" s="19">
-        <v>43059.458333333336</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>43062</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
-        <v>43059.375</v>
-      </c>
-      <c r="B18" s="19">
-        <v>43059.375</v>
-      </c>
-      <c r="C18" s="19">
-        <v>43059.458333333336</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>43062</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
-        <v>43059.375</v>
-      </c>
-      <c r="B19" s="19">
-        <v>43059.375</v>
-      </c>
-      <c r="C19" s="19">
-        <v>43059.458333333336</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>43062</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>43059.375</v>
-      </c>
-      <c r="B20" s="19">
-        <v>43059.375</v>
-      </c>
-      <c r="C20" s="19">
-        <v>43059.458333333336</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>43062</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
-        <v>43060.375</v>
-      </c>
-      <c r="B21" s="19">
-        <v>43060.375</v>
-      </c>
-      <c r="C21" s="19">
-        <v>43060.458333333336</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>43063</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
-        <v>43060.375</v>
-      </c>
-      <c r="B22" s="19">
-        <v>43060.375</v>
-      </c>
-      <c r="C22" s="19">
-        <v>43060.458333333336</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>43063</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
-        <v>43060.375</v>
-      </c>
-      <c r="B23" s="19">
-        <v>43060.375</v>
-      </c>
-      <c r="C23" s="19">
-        <v>43060.458333333336</v>
-      </c>
-      <c r="D23" s="7" t="s">
+        <v>43063</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
-        <v>43060.375</v>
-      </c>
-      <c r="B24" s="19">
-        <v>43060.375</v>
-      </c>
-      <c r="C24" s="19">
-        <v>43060.458333333336</v>
-      </c>
-      <c r="D24" s="7" t="s">
+        <v>43063</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
-        <v>43061.375</v>
-      </c>
-      <c r="B25" s="19">
-        <v>43061.375</v>
-      </c>
-      <c r="C25" s="19">
-        <v>43061.458333333336</v>
-      </c>
-      <c r="D25" s="7" t="s">
+        <v>43064</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
-        <v>43061.375</v>
-      </c>
-      <c r="B26" s="19">
-        <v>43061.375</v>
-      </c>
-      <c r="C26" s="19">
-        <v>43061.458333333336</v>
-      </c>
-      <c r="D26" s="7" t="s">
+        <v>43064</v>
+      </c>
+      <c r="B26" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
-        <v>43061.375</v>
-      </c>
-      <c r="B27" s="19">
-        <v>43061.375</v>
-      </c>
-      <c r="C27" s="19">
-        <v>43061.458333333336</v>
-      </c>
-      <c r="D27" s="7" t="s">
+        <v>43064</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
-        <v>43061.375</v>
-      </c>
-      <c r="B28" s="19">
-        <v>43061.375</v>
-      </c>
-      <c r="C28" s="19">
-        <v>43061.458333333336</v>
-      </c>
-      <c r="D28" s="7" t="s">
+        <v>43064</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
-        <v>43062.375</v>
-      </c>
-      <c r="B29" s="19">
-        <v>43062.375</v>
-      </c>
-      <c r="C29" s="19">
-        <v>43062.458333333336</v>
-      </c>
-      <c r="D29" s="7" t="s">
+        <v>43065</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
-        <v>43062.375</v>
-      </c>
-      <c r="B30" s="19">
-        <v>43062.375</v>
-      </c>
-      <c r="C30" s="19">
-        <v>43062.458333333336</v>
-      </c>
-      <c r="D30" s="7" t="s">
+        <v>43065</v>
+      </c>
+      <c r="B30" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
-        <v>43062.375</v>
-      </c>
-      <c r="B31" s="19">
-        <v>43062.375</v>
-      </c>
-      <c r="C31" s="19">
-        <v>43062.458333333336</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>43065</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
-        <v>43062.375</v>
-      </c>
-      <c r="B32" s="19">
-        <v>43062.375</v>
-      </c>
-      <c r="C32" s="19">
-        <v>43062.458333333336</v>
-      </c>
-      <c r="D32" s="7" t="s">
+        <v>43065</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C32" s="21">
+        <v>0.6875</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+    <row r="33" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1611,7 +1590,91 @@
           <x14:formula1>
             <xm:f>參照!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D33:E172 G9 E6:F32 E5:F5</xm:sqref>
+          <xm:sqref>D33:E172 G9 E5:F32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="17.77734375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>參照!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:E172</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>參照!$C$2:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C172</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1655,11 +1718,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -1739,11 +1802,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -1823,95 +1886,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>參照!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:E172</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>參照!$C$2:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:C172</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="17.77734375" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -1953,4 +1932,96 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="28.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>